--- a/textdocuments/resourcecalcs.xlsx
+++ b/textdocuments/resourcecalcs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
   <si>
     <t>machine</t>
   </si>
@@ -75,12 +75,6 @@
   </si>
   <si>
     <t>magic escape pod: 7 magic items, tech escape pod: 7 tech items - requires you to personally have enough charge/manna at end game</t>
-  </si>
-  <si>
-    <t>magic: sheet of scrap metal, belladonna syrup, stardust, dragon skin, unicorn hoof, werewolf fang, and holy water</t>
-  </si>
-  <si>
-    <t>tech: sheet of scrap metal, flashlight, circuit board, graphite lube, cog, transistor, niobium carbide - use a screwdriver</t>
   </si>
   <si>
     <t>magic/tech bubbles</t>
@@ -143,9 +137,6 @@
 </t>
   </si>
   <si>
-    <t>Compound 8, unicorn hoof, and 2 scrap metal with multitool and catalyst</t>
-  </si>
-  <si>
     <t>Poison (Magic)</t>
   </si>
   <si>
@@ -165,9 +156,6 @@
   </si>
   <si>
     <t>Knockout (Tech)</t>
-  </si>
-  <si>
-    <t>Compound 8, oil, werewolf fang, graphite lube and belladonna syrup with lead pipe and catalyst</t>
   </si>
   <si>
     <t>Mind Control Spell</t>
@@ -219,6 +207,9 @@
     <t>soul gem</t>
   </si>
   <si>
+    <t>couldron</t>
+  </si>
+  <si>
     <t>circuit board</t>
   </si>
   <si>
@@ -289,6 +280,69 @@
   </si>
   <si>
     <t>Dragon skin, 2 scrap metal, 2 holy water, unicorn horn, and werewolf fang with mortar and pestle, diamond, and sieve</t>
+  </si>
+  <si>
+    <t>plumbic rod</t>
+  </si>
+  <si>
+    <t>multitool</t>
+  </si>
+  <si>
+    <t>screwdriver</t>
+  </si>
+  <si>
+    <t>tech: sheet of scrap metal, flashlight, circuit board, graphite lube, cog, transistor, niobium carbide - use a screwdriver and multitool</t>
+  </si>
+  <si>
+    <t>magic: sheet of scrap metal, belladonna syrup, stardust, dragon skin, unicorn hoof, werewolf fang, and holy water - must use a plumbic rod and cauldron</t>
+  </si>
+  <si>
+    <t>mortar and pestle</t>
+  </si>
+  <si>
+    <t>quartz</t>
+  </si>
+  <si>
+    <t>rabbit's foot</t>
+  </si>
+  <si>
+    <t>diamond drill</t>
+  </si>
+  <si>
+    <t>vial</t>
+  </si>
+  <si>
+    <t>centrifuge</t>
+  </si>
+  <si>
+    <t>test tube</t>
+  </si>
+  <si>
+    <t>sieve</t>
+  </si>
+  <si>
+    <t>Compound 8, unicorn hoof, and 2 scrap metal with multitool and diamond for catalyst</t>
+  </si>
+  <si>
+    <t>cursed tome</t>
+  </si>
+  <si>
+    <t>Compound 8, oil, werewolf fang, graphite lube and belladonna syrup with lead pipe and diamond</t>
+  </si>
+  <si>
+    <t>lead pipe</t>
+  </si>
+  <si>
+    <t>monomolecular blade</t>
+  </si>
+  <si>
+    <t>glass lens</t>
+  </si>
+  <si>
+    <t>lucky clover</t>
+  </si>
+  <si>
+    <t>magnet</t>
   </si>
 </sst>
 </file>
@@ -633,13 +687,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:BB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AU14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="AJ1" sqref="AJ1:BB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,96 +703,153 @@
     <col min="4" max="4" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" t="s">
-        <v>75</v>
-      </c>
-      <c r="W1" t="s">
-        <v>76</v>
-      </c>
-      <c r="X1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AK1" t="s">
         <v>84</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AL1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AM1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,8 +889,20 @@
       <c r="M2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -827,8 +950,11 @@
       <c r="F4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AM4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -856,8 +982,11 @@
       <c r="T5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AL5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -865,10 +994,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -909,19 +1038,25 @@
       <c r="Y6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -962,13 +1097,25 @@
       <c r="Y7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -981,13 +1128,16 @@
       <c r="R8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1000,13 +1150,16 @@
       <c r="AA9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AN9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1019,13 +1172,16 @@
       <c r="AB10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AM10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1038,13 +1194,19 @@
       <c r="V11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1057,13 +1219,19 @@
       <c r="Y12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1076,13 +1244,19 @@
       <c r="W13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1095,13 +1269,19 @@
       <c r="AD14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AS14">
+        <v>1</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1114,13 +1294,19 @@
       <c r="AC15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1133,13 +1319,19 @@
       <c r="AC16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1152,13 +1344,19 @@
       <c r="U17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AV17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1171,13 +1369,19 @@
       <c r="AC18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1196,13 +1400,19 @@
       <c r="AE19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1221,13 +1431,19 @@
       <c r="AD20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AW20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:54" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1246,13 +1462,19 @@
       <c r="Z21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:33" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1271,13 +1493,19 @@
       <c r="X22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AY22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1296,13 +1524,19 @@
       <c r="Z23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:33" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ23">
+        <v>1</v>
+      </c>
+      <c r="BA23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1321,13 +1555,19 @@
       <c r="AF24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AS24">
+        <v>1</v>
+      </c>
+      <c r="BB24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1346,13 +1586,22 @@
       <c r="AA25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:54" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1371,14 +1620,23 @@
       <c r="AG26">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AY26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.3">
       <c r="E28">
         <f>SUM(E2:E26)</f>
         <v>2</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28:AH28" si="0">SUM(F2:F26)</f>
+        <f t="shared" ref="F28:AG28" si="0">SUM(F2:F26)</f>
         <v>17</v>
       </c>
       <c r="G28">
